--- a/pred_ohlcv/54_21/2020-01-20 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BCD ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-33640.91707573998</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-33688.76857573998</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-60605.16889731</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-60605.16889731</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-60625.03809731</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-65067.21599731</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-65065.21599731</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-65063.21599731</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-66525.03109731</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-65107.94309731</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-65307.23049731</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-65028.89449730999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-64507.89449730999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-60743.52029730999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-60743.52029730999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-59557.47589731</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-59557.47589731</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-59696.23149730999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-59678.23149730999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-59698.23149730999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-59708.23149730999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-59609.23149730999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-59611.23149730999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-59611.23149730999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-87123.31250776997</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-84434.28170776997</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-84435.28170776997</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-84576.28170776997</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-84292.28170776997</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-89549.33570776998</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-91867.05960776997</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-89647.43130776998</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-98438.44937866997</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-98438.44937866997</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-96445.04437866998</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-88350.19247866998</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-88350.19247866998</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-88402.19247866998</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-87401.19247866998</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-87509.72627866999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-87509.72627866999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-86454.11302742999</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-86483.11302742999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-86457.11302742999</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-86483.11302742999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-86455.11302742999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-86454.11302742999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-96177.09462742999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-96176.09462742999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-100622.36002743</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-100223.08452743</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-101414.20392743</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-101416.20392743</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-101426.20392743</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-101427.60252882</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-101561.24832882</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-102735.47922882</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-104851.43712882</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-101852.13272882</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-101757.71092882</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-106179.86242882</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-102494.74492882</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-102487.34492882</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-102487.34492882</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-104077.3030878</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-104077.3030878</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-102999.4056878</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-103304.1437878</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-106936.2255878</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-106957.9633878</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-106956.9633878</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-103766.9633878</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-100275.6349878</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-102974.1538878</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-100013.4682878</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-100012.4682878</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-100013.8668878</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-99637.42178780002</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-99637.42178780002</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-99636.42178780002</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-100636.4217878</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-102072.8351878</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-102150.7645878</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-108655.4264878</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-108555.4264878</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-113422.7304878</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-111078.0935878</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-113919.5906878</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-112505.6648878</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-142993.2210878</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-169858.7530395601</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-170252.4288395601</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-170250.4940395601</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-171141.7726395601</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-170141.7726395601</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-160033.2779395601</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-153908.6395395601</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-152362.1952395601</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-146706.0419395601</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-149281.5623395601</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-147056.7855395601</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-143807.5188395601</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-141483.8706844101</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-136717.5804395601</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-123280.9916395601</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-112856.6158395601</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-112856.6158395601</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-113845.7595395601</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-113440.7595395601</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-112720.6090395601</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-112266.1770395601</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-134384.81373956</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-133327.39373956</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-132240.07763956</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-132160.07763956</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-132038.07773956</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-131977.07773956</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-131637.2893395601</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-131545.7894395601</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-127602.8154933201</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-129701.4071933201</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-129201.4071933201</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-116201.4071933201</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-116058.2207933201</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-116581.8922933201</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-117098.6732933201</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-117087.6732933201</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-118795.34719332</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-119820.34719332</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-118821.04329332</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-118821.04329332</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-118675.0433933201</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-118617.2866933201</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-119159.0173933201</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-120976.6454933201</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-119124.54849332</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-122031.65629332</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-122031.65629332</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-126474.61139332</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-126474.61139332</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-126633.37909332</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-128606.27069332</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-127903.03469332</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-127903.03469332</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-129385.99289332</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-131339.66069332</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-145701.1756933201</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-145701.1756933201</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-145687.8778209801</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-145845.4884209801</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-145844.4884209801</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-148764.7542209801</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-149689.0555209801</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-149689.0555209801</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-149578.0244209801</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-148469.4043209801</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-148841.6596209801</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-148762.7313209801</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-149729.0466209801</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-148631.58682098</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-148630.58682098</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-149727.0466209801</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-150433.2519209801</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-150333.2519209801</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-151250.82522098</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-151397.74042098</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-151305.82552098</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-150959.82552098</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-150959.82552098</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-146284.98125589</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-155777.34095589</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-155187.95591403</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-155492.32357217</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-154435.13537217</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-154173.99557217</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-157905.61581403</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-157702.55861403</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-156040.09111403</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-156040.09111403</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-155486.98281403</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-156148.06111403</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-156771.61501403</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-156770.61501403</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-157060.61491403</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-157014.42921403</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-157618.2586140299</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-158708.49731403</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-157268.75189037</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-157291.4513903699</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-157867.2396903699</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-155996.3338903699</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-155748.3092903699</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-155412.0680903699</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-155662.0679903699</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-155325.5674903699</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-155282.0040903699</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-155457.8974903699</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-155757.8974903699</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-156221.0568903699</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-156154.0326903699</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-156339.7326903699</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-156920.6760903699</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-157585.1279903699</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-423365.6190686498</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-413740.3570427098</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-406338.4149427098</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-405902.4814427099</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-402668.2971679998</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-402668.2971679998</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-402668.2971679998</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-405349.7283679998</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-420704.7617679999</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-420696.3310501399</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-420796.0390501398</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-418652.2811501398</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-415599.8726501398</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-415870.2766501398</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-415567.7555824398</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-415067.7555824398</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-417213.2759099097</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-417213.2759099097</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-417213.2759099097</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-418528.8639099097</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-418997.5238099098</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-421490.0515099097</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-420861.7243099097</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-417880.3034099097</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-417880.3034099097</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-510412.5167838397</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-481298.5014219197</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-481137.0059219197</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-481137.0059219197</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-473014.7000219197</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-472631.5546173597</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-470889.4964173596</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-470889.4964173596</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-458498.0862173596</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-459840.7643173597</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-457866.7784968797</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-449989.4966968797</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-443071.4966968797</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-443906.1824968797</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-443015.1824968797</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-446266.1979968796</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-446266.1979968796</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-445397.0809968796</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-444326.9026968796</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-429121.7832968796</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-422052.3150476996</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-425533.2175413496</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-426762.9992413496</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-426748.1844413496</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-426748.1844413496</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-420918.1844413496</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-418552.7789191096</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-420761.1211191096</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-419057.1372191096</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-415414.5727191097</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-400198.1689191096</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BCD ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>-60605.16889731</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-60605.16889731</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-60625.03809731</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-65067.21599731</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-65065.21599731</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-65063.21599731</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-66525.03109731</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-65107.94309731</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-65307.23049731</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-65028.89449730999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-64507.89449730999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-65044.44979730999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-60743.52029730999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-60743.52029730999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-59557.47589731</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-59557.47589731</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-59696.23149730999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-59678.23149730999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-59698.23149730999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-59708.23149730999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-59609.23149730999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-59611.23149730999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-59611.23149730999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-87123.31250776997</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-84434.28170776997</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-84435.28170776997</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-84576.28170776997</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-84292.28170776997</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-89549.33570776998</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-91867.05960776997</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-89647.43130776998</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-98438.44937866997</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-98438.44937866997</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-96445.04437866998</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-88350.19247866998</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-88350.19247866998</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-88402.19247866998</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-87401.19247866998</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-87509.72627866999</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-87509.72627866999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-86454.11302742999</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-86483.11302742999</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-86457.11302742999</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-86483.11302742999</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-86455.11302742999</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-86454.11302742999</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-96177.09462742999</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-96176.09462742999</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-100622.36002743</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-100223.08452743</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-101414.20392743</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-101416.20392743</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-101426.20392743</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-101427.60252882</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-101561.24832882</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-102735.47922882</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-104851.43712882</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-101852.13272882</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-103149.60832882</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-101757.71092882</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-106179.86242882</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-102494.74492882</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-102487.34492882</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-102487.34492882</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-104077.3030878</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-104077.3030878</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-102999.4056878</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-103304.1437878</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-106936.2255878</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-106957.9633878</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-106956.9633878</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-103766.9633878</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-100275.6349878</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-102974.1538878</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-100013.4682878</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-100012.4682878</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-100013.8668878</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-99637.42178780002</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-99637.42178780002</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-99636.42178780002</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-100636.4217878</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-102072.8351878</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-102150.7645878</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-108655.4264878</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-108555.4264878</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-109382.7736878</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-113422.7304878</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-111078.0935878</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-112018.5916878</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-113919.5906878</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-111651.9568878</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-112505.6648878</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-106598.4503878</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-142993.2210878</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-169858.7530395601</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-170252.4288395601</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-170250.4940395601</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-171141.7726395601</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-170141.7726395601</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-161609.5574395601</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-160033.2779395601</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-153908.6395395601</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-152362.1952395601</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-146706.0419395601</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-149281.5623395601</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-147056.7855395601</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-143807.5188395601</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-141483.8706844101</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-136717.5804395601</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-123280.9916395601</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-134384.81373956</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-133327.39373956</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-132240.07763956</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-132160.07763956</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-132038.07773956</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-131977.07773956</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-131637.2893395601</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-131545.7894395601</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-127602.8154933201</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-129701.4071933201</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-129201.4071933201</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-116201.4071933201</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-116058.2207933201</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-116581.8922933201</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-117098.6732933201</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-117087.6732933201</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-118795.34719332</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-119820.34719332</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-118821.04329332</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-118821.04329332</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-118675.0433933201</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-118617.2866933201</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-119159.0173933201</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-118354.9025933201</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-120976.6454933201</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-119126.3484933201</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-119124.54849332</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-122031.65629332</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-122031.65629332</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-126062.52359332</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-126474.61139332</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-126474.61139332</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-126478.44659332</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-126633.37909332</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-128606.27069332</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-127903.03469332</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-127903.03469332</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-129385.99289332</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-131339.66069332</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-131778.0837933201</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-145701.1756933201</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-145701.1756933201</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-145687.8778209801</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-145845.4884209801</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-145844.4884209801</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-148764.7542209801</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-149689.0555209801</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-149689.0555209801</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-149578.0244209801</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-148469.4043209801</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-148841.6596209801</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-148762.7313209801</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-149729.0466209801</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-149727.0466209801</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-150433.2519209801</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-151250.82522098</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-150959.82552098</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-163114.55985873</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-160538.22415873</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-153502.21305589</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-153502.21305589</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-146284.98125589</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-155777.34095589</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-155187.95591403</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-155492.32357217</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-154435.13537217</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-154173.99557217</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-157905.61581403</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-157702.55861403</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-156040.09111403</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-156040.09111403</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-155486.98281403</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-156148.06111403</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-156771.61501403</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-156770.61501403</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-157060.61491403</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-157019.61491403</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-157014.42921403</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-157040.42921403</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-157618.2586140299</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-154475.9425140299</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-158708.49731403</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-157268.75189037</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-157291.4513903699</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-157867.2396903699</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-156167.2036903699</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-155996.3338903699</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-155477.8472903699</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-155748.3092903699</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-155412.0680903699</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-155662.0679903699</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-155265.5560903699</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-155325.5674903699</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-155282.0040903699</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-155282.0040903699</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-155457.8974903699</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-155757.8974903699</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-156221.0568903699</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-156154.0326903699</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-156339.7326903699</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-156920.6760903699</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-157585.1279903699</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-158335.0122903699</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-158896.4661903699</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-158896.4661903699</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-405394.0281679999</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-402668.2971679998</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-402668.2971679998</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-402668.2971679998</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-405349.7283679998</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-420704.7617679999</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-420696.3310501399</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-420796.0390501398</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-418652.2811501398</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-415599.8726501398</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-415870.2766501398</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-415567.7555824398</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-415067.7555824398</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-417213.2759099097</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-417213.2759099097</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-417213.2759099097</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-418528.8639099097</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-418997.5238099098</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-421490.0515099097</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-420861.7243099097</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-417880.3034099097</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-417880.3034099097</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-532546.7216099097</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-510412.5167838397</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-498147.6712838397</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-481298.5014219197</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-481137.0059219197</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-481137.0059219197</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-473014.7000219197</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-472631.5546173597</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-470889.4964173596</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-470889.4964173596</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-459840.7643173597</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-459840.7643173597</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-457866.7784968797</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-449989.4966968797</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-443071.4966968797</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-443906.1824968797</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-443015.1824968797</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-446266.1979968796</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-446266.1979968796</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-445397.0809968796</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-444326.9026968796</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-429121.7832968796</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-429252.2492968796</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-426823.3134476996</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-422052.3150476996</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-425533.2175413496</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-426762.9992413496</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-426748.1844413496</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-426748.1844413496</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-420918.1844413496</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-418552.7789191096</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-420761.1211191096</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-419057.1372191096</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-415414.5727191097</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-400198.1689191096</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
